--- a/Documents/Goals.xlsx
+++ b/Documents/Goals.xlsx
@@ -1,23 +1,71 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="GAMEPLAY" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+  <si>
+    <t>GAMEPLAY</t>
+  </si>
+  <si>
+    <t>Create a moving ship</t>
+  </si>
+  <si>
+    <t>Create a ship object. Allow for gamepad and tilt movement. Design and implement gamepad object.</t>
+  </si>
+  <si>
+    <t>TASK</t>
+  </si>
+  <si>
+    <t>START DATE</t>
+  </si>
+  <si>
+    <t>END DATE</t>
+  </si>
+  <si>
+    <t>PERCENT COMPLETE</t>
+  </si>
+  <si>
+    <t>DESCRIPTION OF TASK</t>
+  </si>
+  <si>
+    <t>COMMENTS</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -32,7 +80,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -40,18 +88,68 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -98,7 +196,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -133,7 +231,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -341,13 +439,76 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="31.85546875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17" style="1" customWidth="1"/>
+    <col min="5" max="5" width="36.85546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="39.7109375" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="10.85546875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+    </row>
+    <row r="2" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="4">
+        <v>42399</v>
+      </c>
+      <c r="C3" s="4">
+        <v>42406</v>
+      </c>
+      <c r="D3" s="5">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:F1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>